--- a/statistics_files/2024/2024.g.sharing.statistics.xlsx
+++ b/statistics_files/2024/2024.g.sharing.statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2024\2024 files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A98670-2945-475D-86C9-4BC58FCEBEC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0726E08-913E-4950-8120-185683F4A38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11390" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" activeTab="1" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly total" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="64">
   <si>
     <t>Library</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Total circulation this month</t>
+  </si>
+  <si>
+    <t>Prairie Hills Schools - Wetmore Academic Center (Permanently closed)</t>
   </si>
 </sst>
 </file>
@@ -721,20 +724,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,160 +751,160 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>0</v>
+        <v>3940</v>
       </c>
       <c r="C2" s="2">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="D2" s="2">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>0</v>
+        <v>2594</v>
       </c>
       <c r="C3" s="3">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D3" s="3">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>0</v>
+        <v>7699</v>
       </c>
       <c r="C4" s="2">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="2">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>0</v>
+        <v>5627</v>
       </c>
       <c r="C6" s="2">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="D6" s="2">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D7" s="3">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="C8" s="2">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -918,245 +921,245 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C12" s="4">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C13" s="5">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D13" s="5">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="C14" s="4">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="C15" s="5">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="C17" s="3">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="D17" s="3">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="C19" s="3">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="D19" s="3">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="C21" s="3">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="D21" s="3">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="C23" s="3">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="D23" s="3">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>0</v>
+        <v>8587</v>
       </c>
       <c r="C24" s="2">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="D24" s="2">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="C25" s="3">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D25" s="3">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1173,296 +1176,296 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="C27" s="3">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D27" s="3">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="C29" s="3">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D29" s="3">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C31" s="3">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="C32" s="2">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="D32" s="2">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="C33" s="3">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D33" s="3">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C34" s="2">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>0</v>
+        <v>6165</v>
       </c>
       <c r="C35" s="3">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="D35" s="3">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="C36" s="2">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>0</v>
+        <v>2959</v>
       </c>
       <c r="C37" s="3">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D37" s="3">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="3">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="6">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="C40" s="6">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="7">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="C41" s="7">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="6">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="6">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="7">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C43" s="7">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -1479,225 +1482,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="3">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C45" s="3">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="C46" s="2">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="D46" s="2">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="3">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="C47" s="3">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="D47" s="3">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="C48" s="2">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="3">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="C49" s="3">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="D49" s="3">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="C50" s="2">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="D50" s="2">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="C51" s="3">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D51" s="3">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="C52" s="2">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D52" s="2">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="3">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C53" s="3">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D53" s="3">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C54" s="2">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="3">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="C55" s="3">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D55" s="3">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2309</v>
       </c>
     </row>
   </sheetData>
@@ -1719,13 +1722,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -2704,7 +2707,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2722,13 +2725,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -3707,7 +3710,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3725,13 +3728,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3763,7 +3766,7 @@
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3781,7 +3784,7 @@
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3799,7 +3802,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3817,7 +3820,7 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +3838,7 @@
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3856,7 @@
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3871,7 +3874,7 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3889,7 +3892,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3907,7 +3910,7 @@
       </c>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3925,7 +3928,7 @@
       </c>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -3943,7 +3946,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -3979,7 +3982,7 @@
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -3997,7 +4000,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4018,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -4033,7 +4036,7 @@
       </c>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4054,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -4069,7 +4072,7 @@
       </c>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -4087,7 +4090,7 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -4105,7 +4108,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -4123,7 +4126,7 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4144,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -4159,7 +4162,7 @@
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -4177,7 +4180,7 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -4195,7 +4198,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -4213,7 +4216,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -4231,7 +4234,7 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -4249,7 +4252,7 @@
       </c>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -4267,7 +4270,7 @@
       </c>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -4285,7 +4288,7 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -4303,7 +4306,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4321,7 +4324,7 @@
       </c>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -4339,7 +4342,7 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4357,7 +4360,7 @@
       </c>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -4375,7 +4378,7 @@
       </c>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -4393,7 +4396,7 @@
       </c>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -4411,7 +4414,7 @@
       </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4429,7 +4432,7 @@
       </c>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -4447,7 +4450,7 @@
       </c>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -4465,7 +4468,7 @@
       </c>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -4483,7 +4486,7 @@
       </c>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -4501,7 +4504,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -4519,7 +4522,7 @@
       </c>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -4537,7 +4540,7 @@
       </c>
       <c r="E45" s="12"/>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -4555,7 +4558,7 @@
       </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -4573,7 +4576,7 @@
       </c>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -4591,7 +4594,7 @@
       </c>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -4609,7 +4612,7 @@
       </c>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -4627,7 +4630,7 @@
       </c>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -4645,7 +4648,7 @@
       </c>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -4663,7 +4666,7 @@
       </c>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -4681,7 +4684,7 @@
       </c>
       <c r="E53" s="12"/>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -4699,7 +4702,7 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -4717,7 +4720,7 @@
       </c>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -4735,7 +4738,7 @@
       </c>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -4766,7 +4769,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4784,13 +4787,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -5059,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -5772,7 +5775,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5790,13 +5793,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -6775,7 +6778,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6786,20 +6789,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6813,160 +6816,160 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>JanuaryRaw!B2</f>
-        <v>0</v>
+        <v>3940</v>
       </c>
       <c r="C2" s="2">
         <f>JanuaryRaw!C2</f>
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="D2" s="2">
         <f>JanuaryRaw!D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f>JanuaryRaw!B3</f>
-        <v>0</v>
+        <v>2594</v>
       </c>
       <c r="C3" s="3">
         <f>JanuaryRaw!C3</f>
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D3" s="3">
         <f>JanuaryRaw!D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>JanuaryRaw!B4</f>
-        <v>0</v>
+        <v>7699</v>
       </c>
       <c r="C4" s="2">
         <f>JanuaryRaw!C4</f>
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="2">
         <f>JanuaryRaw!D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f>JanuaryRaw!B5</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3">
         <f>JanuaryRaw!C5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3">
         <f>JanuaryRaw!D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>JanuaryRaw!B6</f>
-        <v>0</v>
+        <v>5627</v>
       </c>
       <c r="C6" s="2">
         <f>JanuaryRaw!C6</f>
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="D6" s="2">
         <f>JanuaryRaw!D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <f>JanuaryRaw!B7</f>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3">
         <f>JanuaryRaw!C7</f>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D7" s="3">
         <f>JanuaryRaw!D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <f>JanuaryRaw!B8</f>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="C8" s="2">
         <f>JanuaryRaw!C8</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2">
         <f>JanuaryRaw!D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <f>JanuaryRaw!B9</f>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3">
         <f>JanuaryRaw!C9</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
         <f>JanuaryRaw!D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f>JanuaryRaw!B10</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <f>JanuaryRaw!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>JanuaryRaw!D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6983,245 +6986,245 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <f>JanuaryRaw!B12</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C12" s="4">
         <f>JanuaryRaw!C12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <f>JanuaryRaw!D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <f>JanuaryRaw!B13</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C13" s="5">
         <f>JanuaryRaw!C13</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D13" s="5">
         <f>JanuaryRaw!D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
         <f>JanuaryRaw!B14</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="C14" s="4">
         <f>JanuaryRaw!C14</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4">
         <f>JanuaryRaw!D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <f>JanuaryRaw!B15</f>
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="C15" s="5">
         <f>JanuaryRaw!C15</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5">
         <f>JanuaryRaw!D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <f>JanuaryRaw!B16</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2">
         <f>JanuaryRaw!C16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
         <f>JanuaryRaw!D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <f>JanuaryRaw!B17</f>
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="C17" s="3">
         <f>JanuaryRaw!C17</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="D17" s="3">
         <f>JanuaryRaw!D17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <f>JanuaryRaw!B18</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <f>JanuaryRaw!C18</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2">
         <f>JanuaryRaw!D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <f>JanuaryRaw!B19</f>
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="C19" s="3">
         <f>JanuaryRaw!C19</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="D19" s="3">
         <f>JanuaryRaw!D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <f>JanuaryRaw!B20</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <f>JanuaryRaw!C20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
         <f>JanuaryRaw!D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <f>JanuaryRaw!B21</f>
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="C21" s="3">
         <f>JanuaryRaw!C21</f>
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="D21" s="3">
         <f>JanuaryRaw!D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <f>JanuaryRaw!B22</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2">
         <f>JanuaryRaw!C22</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <f>JanuaryRaw!D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <f>JanuaryRaw!B23</f>
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="C23" s="3">
         <f>JanuaryRaw!C23</f>
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="D23" s="3">
         <f>JanuaryRaw!D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <f>JanuaryRaw!B24</f>
-        <v>0</v>
+        <v>8587</v>
       </c>
       <c r="C24" s="2">
         <f>JanuaryRaw!C24</f>
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="D24" s="2">
         <f>JanuaryRaw!D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <f>JanuaryRaw!B25</f>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="C25" s="3">
         <f>JanuaryRaw!C25</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D25" s="3">
         <f>JanuaryRaw!D25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -7238,296 +7241,296 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <f>JanuaryRaw!B27</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="C27" s="3">
         <f>JanuaryRaw!C27</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D27" s="3">
         <f>JanuaryRaw!D27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <f>JanuaryRaw!B28</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2">
         <f>JanuaryRaw!C28</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2">
         <f>JanuaryRaw!D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <f>JanuaryRaw!B29</f>
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="C29" s="3">
         <f>JanuaryRaw!C29</f>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D29" s="3">
         <f>JanuaryRaw!D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <f>JanuaryRaw!B30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <f>JanuaryRaw!C30</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
         <f>JanuaryRaw!D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <f>JanuaryRaw!B31</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C31" s="3">
         <f>JanuaryRaw!C31</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3">
         <f>JanuaryRaw!D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <f>JanuaryRaw!B32</f>
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="C32" s="2">
         <f>JanuaryRaw!C32</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="D32" s="2">
         <f>JanuaryRaw!D32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3">
         <f>JanuaryRaw!B33</f>
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="C33" s="3">
         <f>JanuaryRaw!C33</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D33" s="3">
         <f>JanuaryRaw!D33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <f>JanuaryRaw!B34</f>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C34" s="2">
         <f>JanuaryRaw!C34</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2">
         <f>JanuaryRaw!D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3">
         <f>JanuaryRaw!B35</f>
-        <v>0</v>
+        <v>6165</v>
       </c>
       <c r="C35" s="3">
         <f>JanuaryRaw!C35</f>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="D35" s="3">
         <f>JanuaryRaw!D35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <f>JanuaryRaw!B36</f>
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="C36" s="2">
         <f>JanuaryRaw!C36</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2">
         <f>JanuaryRaw!D36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3">
         <f>JanuaryRaw!B37</f>
-        <v>0</v>
+        <v>2959</v>
       </c>
       <c r="C37" s="3">
         <f>JanuaryRaw!C37</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D37" s="3">
         <f>JanuaryRaw!D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <f>JanuaryRaw!B38</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
         <f>JanuaryRaw!C38</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
         <f>JanuaryRaw!D38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="3">
         <f>JanuaryRaw!B39</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3">
         <f>JanuaryRaw!C39</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3">
         <f>JanuaryRaw!D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="6">
         <f>JanuaryRaw!B40</f>
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="C40" s="6">
         <f>JanuaryRaw!C40</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6">
         <f>JanuaryRaw!D40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="7">
         <f>JanuaryRaw!B41</f>
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="C41" s="7">
         <f>JanuaryRaw!C41</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7">
         <f>JanuaryRaw!D41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="6">
         <f>JanuaryRaw!B42</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6">
         <f>JanuaryRaw!C42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="6">
         <f>JanuaryRaw!D42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="7">
         <f>JanuaryRaw!B43</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C43" s="7">
         <f>JanuaryRaw!C43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7">
         <f>JanuaryRaw!D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -7544,225 +7547,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="3">
         <f>JanuaryRaw!B45</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C45" s="3">
         <f>JanuaryRaw!C45</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3">
         <f>JanuaryRaw!D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <f>JanuaryRaw!B46</f>
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="C46" s="2">
         <f>JanuaryRaw!C46</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="D46" s="2">
         <f>JanuaryRaw!D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="3">
         <f>JanuaryRaw!B47</f>
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="C47" s="3">
         <f>JanuaryRaw!C47</f>
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="D47" s="3">
         <f>JanuaryRaw!D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <f>JanuaryRaw!B48</f>
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="C48" s="2">
         <f>JanuaryRaw!C48</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2">
         <f>JanuaryRaw!D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="3">
         <f>JanuaryRaw!B49</f>
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="C49" s="3">
         <f>JanuaryRaw!C49</f>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="D49" s="3">
         <f>JanuaryRaw!D49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <f>JanuaryRaw!B50</f>
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="C50" s="2">
         <f>JanuaryRaw!C50</f>
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="D50" s="2">
         <f>JanuaryRaw!D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3">
         <f>JanuaryRaw!B51</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="C51" s="3">
         <f>JanuaryRaw!C51</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D51" s="3">
         <f>JanuaryRaw!D51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <f>JanuaryRaw!B52</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="C52" s="2">
         <f>JanuaryRaw!C52</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D52" s="2">
         <f>JanuaryRaw!D52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="3">
         <f>JanuaryRaw!B53</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C53" s="3">
         <f>JanuaryRaw!C53</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D53" s="3">
         <f>JanuaryRaw!D53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <f>JanuaryRaw!B54</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C54" s="2">
         <f>JanuaryRaw!C54</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2">
         <f>JanuaryRaw!D54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="3">
         <f>JanuaryRaw!B55</f>
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="C55" s="3">
         <f>JanuaryRaw!C55</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D55" s="3">
         <f>JanuaryRaw!D55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="8">
         <f>SUM(B12,B13,B14,B15)</f>
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ref="C56:D56" si="0">SUM(C12,C13,C14,C15)</f>
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="9">
         <f>SUM(B40,B41,B42,B43,B44)</f>
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="C57" s="9">
         <f t="shared" ref="C57:D57" si="1">SUM(C40,C41,C42,C43,C44)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2309</v>
       </c>
     </row>
   </sheetData>
@@ -7783,13 +7786,13 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8058,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -8211,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -8228,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -8449,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -8534,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -8568,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -8619,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -8653,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -8687,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -8738,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -8768,7 +8771,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8786,13 +8789,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -8874,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -8925,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -8942,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -8976,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -9061,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -9078,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -9163,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -9180,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -9248,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -9367,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -9418,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -9469,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -9520,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -9639,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -9690,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -9707,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -9771,7 +9774,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9789,13 +9792,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9826,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9843,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -9894,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -9945,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -9962,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -10030,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -10115,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -10149,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -10217,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -10336,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -10353,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -10387,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -10421,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -10438,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -10506,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -10591,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -10608,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -10625,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -10642,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -10744,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -10779,7 +10782,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10788,12 +10791,758 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CE8F7A-07F7-44D3-9898-1667670F0439}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3940</v>
+      </c>
+      <c r="C2">
+        <v>1329</v>
+      </c>
+      <c r="D2">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2594</v>
+      </c>
+      <c r="C3">
+        <v>534</v>
+      </c>
+      <c r="D3">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7699</v>
+      </c>
+      <c r="C4">
+        <v>1209</v>
+      </c>
+      <c r="D4">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5627</v>
+      </c>
+      <c r="C6">
+        <v>1109</v>
+      </c>
+      <c r="D6">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>285</v>
+      </c>
+      <c r="C7">
+        <v>257</v>
+      </c>
+      <c r="D7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>491</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>235</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>187</v>
+      </c>
+      <c r="C13">
+        <v>170</v>
+      </c>
+      <c r="D13">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>525</v>
+      </c>
+      <c r="C14">
+        <v>152</v>
+      </c>
+      <c r="D14">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>323</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>224</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1503</v>
+      </c>
+      <c r="C17">
+        <v>619</v>
+      </c>
+      <c r="D17">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1505</v>
+      </c>
+      <c r="C19">
+        <v>615</v>
+      </c>
+      <c r="D19">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1613</v>
+      </c>
+      <c r="C21">
+        <v>423</v>
+      </c>
+      <c r="D21">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1944</v>
+      </c>
+      <c r="C23">
+        <v>619</v>
+      </c>
+      <c r="D23">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8587</v>
+      </c>
+      <c r="C24">
+        <v>1721</v>
+      </c>
+      <c r="D24">
+        <v>10308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>676</v>
+      </c>
+      <c r="C25">
+        <v>158</v>
+      </c>
+      <c r="D25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>331</v>
+      </c>
+      <c r="C27">
+        <v>255</v>
+      </c>
+      <c r="D27">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>969</v>
+      </c>
+      <c r="C29">
+        <v>528</v>
+      </c>
+      <c r="D29">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>280</v>
+      </c>
+      <c r="C31">
+        <v>67</v>
+      </c>
+      <c r="D31">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1186</v>
+      </c>
+      <c r="C32">
+        <v>361</v>
+      </c>
+      <c r="D32">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>793</v>
+      </c>
+      <c r="C33">
+        <v>336</v>
+      </c>
+      <c r="D33">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>456</v>
+      </c>
+      <c r="C34">
+        <v>147</v>
+      </c>
+      <c r="D34">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6165</v>
+      </c>
+      <c r="C35">
+        <v>787</v>
+      </c>
+      <c r="D35">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>786</v>
+      </c>
+      <c r="C36">
+        <v>176</v>
+      </c>
+      <c r="D36">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2959</v>
+      </c>
+      <c r="C37">
+        <v>450</v>
+      </c>
+      <c r="D37">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>61</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>373</v>
+      </c>
+      <c r="C40">
+        <v>71</v>
+      </c>
+      <c r="D40">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1563</v>
+      </c>
+      <c r="C41">
+        <v>101</v>
+      </c>
+      <c r="D41">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>131</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>324</v>
+      </c>
+      <c r="C45">
+        <v>71</v>
+      </c>
+      <c r="D45">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1242</v>
+      </c>
+      <c r="C46">
+        <v>515</v>
+      </c>
+      <c r="D46">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2750</v>
+      </c>
+      <c r="C47">
+        <v>1087</v>
+      </c>
+      <c r="D47">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1282</v>
+      </c>
+      <c r="C48">
+        <v>264</v>
+      </c>
+      <c r="D48">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>890</v>
+      </c>
+      <c r="C49">
+        <v>513</v>
+      </c>
+      <c r="D49">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3110</v>
+      </c>
+      <c r="C50">
+        <v>906</v>
+      </c>
+      <c r="D50">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>302</v>
+      </c>
+      <c r="C51">
+        <v>187</v>
+      </c>
+      <c r="D51">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1106</v>
+      </c>
+      <c r="C52">
+        <v>322</v>
+      </c>
+      <c r="D52">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>170</v>
+      </c>
+      <c r="C53">
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>244</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>416</v>
+      </c>
+      <c r="C55">
+        <v>300</v>
+      </c>
+      <c r="D55">
+        <v>716</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10810,13 +11559,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10830,7 +11579,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10847,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10864,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -10881,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -10898,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -10915,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -10932,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10949,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -10966,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10983,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -11000,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -11017,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -11034,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -11051,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -11068,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -11085,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -11102,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -11119,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -11136,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -11153,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -11170,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -11187,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -11204,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -11221,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -11238,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -11255,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -11272,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -11289,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -11306,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -11323,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -11340,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -11357,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -11374,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -11391,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -11408,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -11425,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -11442,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -11459,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -11476,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -11493,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -11510,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -11527,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -11544,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -11561,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -11578,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -11595,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -11612,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -11629,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -11646,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -11663,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -11680,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -11697,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -11714,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -11731,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -11748,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -11765,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -11795,7 +12544,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11813,13 +12562,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11833,7 +12582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -11850,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11867,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -11884,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -11901,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -11918,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -11935,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11952,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -11969,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -11986,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -12003,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -12020,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -12037,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -12054,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -12071,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -12088,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -12105,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -12122,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -12139,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -12156,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -12173,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -12190,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -12207,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -12224,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -12241,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -12258,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -12275,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -12292,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -12309,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -12326,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -12343,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -12360,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -12377,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -12394,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -12411,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -12428,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -12445,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -12462,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -12479,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -12496,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -12513,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -12530,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -12547,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -12564,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -12581,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -12598,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -12615,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -12632,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -12649,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -12666,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -12683,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -12700,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -12717,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -12734,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -12751,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -12768,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -12798,7 +13547,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12816,13 +13565,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="35.7265625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="35.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12836,7 +13585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -12853,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12870,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -12887,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -12904,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -12921,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -12938,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -12955,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -12972,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -12989,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -13006,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -13023,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -13040,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -13057,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -13074,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13091,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -13108,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -13125,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -13142,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13159,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -13176,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -13193,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -13210,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -13227,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -13244,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -13261,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -13278,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -13295,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -13312,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -13329,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -13346,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -13363,7 +14112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -13380,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -13397,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -13414,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -13431,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -13448,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -13465,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -13482,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -13499,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -13516,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -13533,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -13550,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -13567,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -13584,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -13601,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -13618,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -13635,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -13652,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -13669,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -13686,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -13703,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -13720,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -13737,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -13754,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -13771,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
@@ -13801,7 +14550,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
